--- a/biology/Zoologie/Bonjour_le_monde_!/Bonjour_le_monde_!.xlsx
+++ b/biology/Zoologie/Bonjour_le_monde_!/Bonjour_le_monde_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonjour le monde ! est un film d'animation français réalisé par Anne-Lise Koehler et Éric Serre sorti en 2019.
 Ce film est basé sur une série d'animation dont le pilote avait été récompensé au festival d'animation d'Annecy en 2015. Le long métrage a quant à lui été présenté pour la première fois dans ce même festival lors de l'édition 2019.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Réalisées en papier mâché, les délicates marionnettes prennent vie en stop-motion, dans de superbes décors colorés, pour raconter aux petits et aux grands la vie de la faune et de la flore de nos campagnes et les sensibiliser à la préservation de la nature et à l’équilibre des écosystèmes. Une œuvre où les marionnettes, les sculptures, la peinture et l’animation réinterprètent la Nature, pour nous la faire redécouvrir comme nous ne l’avons jamais vue...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Bonjour le monde !
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Voix originales :
